--- a/data/EarsketchModelInputData2015.xlsx
+++ b/data/EarsketchModelInputData2015.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\CEISMC Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MHELMS3\Documents\GitHub\Earsketch-SDM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22680" windowHeight="9540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -186,13 +186,46 @@
   </si>
   <si>
     <t>CS Background - # of Classes</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Influence</t>
+  </si>
+  <si>
+    <t>IGNORE</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Attrribute</t>
+  </si>
+  <si>
+    <t>Influencing Agent</t>
+  </si>
+  <si>
+    <t>Influencing Attribute</t>
+  </si>
+  <si>
+    <t>Weight of Influence</t>
+  </si>
+  <si>
+    <t>Is ABSOLUTE</t>
+  </si>
+  <si>
+    <t>Is ANNUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influence </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +233,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -218,14 +275,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -566,828 +631,2633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F55"/>
+  <dimension ref="A2:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>3.3</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>3</v>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
       <c r="D26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
       <c r="D31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
+      <c r="C34" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>3</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
       <c r="D35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>3</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
       <c r="D36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
       <c r="D39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>3</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>4</v>
       </c>
-      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>4</v>
       </c>
-      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>4</v>
       </c>
-      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>4</v>
       </c>
-      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>4</v>
       </c>
-      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G58" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G59" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G62" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G63" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G66" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G67" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G70" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G71" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G74" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G75" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G78" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G79" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G88" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G89" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G92" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G93" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G94" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G97" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G98" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F121" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+      <c r="G124" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+      <c r="G126" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+      <c r="G128" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>